--- a/DatabaseUpdate/ExcelFiles/Branches.xlsx
+++ b/DatabaseUpdate/ExcelFiles/Branches.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -34,496 +34,499 @@
     <x:t>EndDateTime</x:t>
   </x:si>
   <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дирекция</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Лаборатория молекулярной цитогенетики нервно-психических заболеваний</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Лаборатория общей патологии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отдел организации и развития научно-исследовательской и инновационной деятельности</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отдел радиационной экопатологии детского возраста</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Прочий персонал</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отдел острой и хронической патологии уха, горла и носа</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Центр информационных технологий и мониторинга</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отдел детской кардиологии и аритмологии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Отдел психоневрологии и наследственных  заболеваний с нарушением психики </x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отдел аллергологии и клинической иммунологии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отдел психоневрологии и эпилептологии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отдел гастроэнтерологии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отдел неонатологии и патологии детей раннего возраста</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отдел хронических, воспалительных и аллергических.болезней легких</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отдел наследственных и приобретенных болезней почек</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Аппарат управления</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Бухгалтерия</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Инженерная служба</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отдел документации и делопроизводства</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Пищеблок</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Планово-экономический отдел</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Хозяйственный отдел</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Центр поддержки и развития информационных систем</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Аптека</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Иммуно-бактериологическая лаборатория</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Лаборатория цитогенетики</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Клинико-диагностическая лаборатория</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Лаборатория молекулярной и биохимической диагностики</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Операционный блок</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отделение анестезиологии-реанимации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отделение мониторинга и анализа младенческой смертности</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отделение рентгеновских методов исследования</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отделение физиотерапии и восстановительного лечения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Кабинет парафиногрязелечения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Кабинет иглорефлексотерапии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отделение функциональной диагностики</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Лаборатория патоморфологии и иммунологии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Централизованное стерилизационное и дезинфекционное отделение</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Клинико-реабилитационное отделение </x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отделение клинической и  интервенционной аритмологии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отделение функциональной диагностики нарушений сердечного ритма</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Кабинет ультразвуковой диагностики</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отделение хирургического лечения сложных нарушений ритма сердца и электрокардиостимуляции</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Рентгеноперационный кабинет</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Кардиоревматологическое отделение</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Общеклинический медицинский персонал</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Гинекологический кабинет</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отдел реализации медицинских услуг</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отделение врожденных и наследственных заболеваний с поражением центральной нервной системы с нарушением психики у детей</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отделение врожденных и наследственных заболеваний с поражением центральной нервной системы с наруше</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Кабинет медико-генетического консультирования</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отделение гастроэнтерологии и эндоскопических методов исследования</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отделение детской хирургии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отделение нефрологии</x:t>
+  </x:si>
+  <x:si>
     <x:t>55</x:t>
   </x:si>
   <x:si>
-    <x:t>NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дирекция</x:t>
+    <x:t>Отделение офтальмологии</x:t>
   </x:si>
   <x:si>
     <x:t>56</x:t>
   </x:si>
   <x:si>
-    <x:t>Лаборатория молекулярной цитогенетики нервно-психических заболеваний</x:t>
+    <x:t>Отделение психоневрологии</x:t>
   </x:si>
   <x:si>
     <x:t>57</x:t>
   </x:si>
   <x:si>
-    <x:t>Лаборатория общей патологии</x:t>
+    <x:t>Кабинет цистоскопии</x:t>
   </x:si>
   <x:si>
     <x:t>58</x:t>
   </x:si>
   <x:si>
-    <x:t>Отдел организации и развития научно-исследовательской и инновационной деятельности</x:t>
+    <x:t>Отделение психоневрологии-2</x:t>
   </x:si>
   <x:si>
     <x:t>59</x:t>
   </x:si>
   <x:si>
-    <x:t>Отдел радиационной экопатологии детского возраста</x:t>
+    <x:t>Пульмонологическое отделение</x:t>
   </x:si>
   <x:si>
     <x:t>60</x:t>
   </x:si>
   <x:si>
-    <x:t>Прочий персонал</x:t>
+    <x:t>Отделение реабилитации детей радиационного риска</x:t>
   </x:si>
   <x:si>
     <x:t>61</x:t>
   </x:si>
   <x:si>
-    <x:t>Отдел острой и хронической патологии уха, горла и носа</x:t>
+    <x:t>Отделение стоматологии</x:t>
   </x:si>
   <x:si>
     <x:t>62</x:t>
   </x:si>
   <x:si>
-    <x:t>Центр информационных технологий и мониторинга</x:t>
+    <x:t>Кабинет эндоскопии (бронхоскопии)</x:t>
   </x:si>
   <x:si>
     <x:t>63</x:t>
   </x:si>
   <x:si>
-    <x:t>Отдел детской кардиологии и аритмологии</x:t>
+    <x:t>Оториноларингологическое отделение</x:t>
   </x:si>
   <x:si>
     <x:t>64</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Отдел психоневрологии и наследственных  заболеваний с нарушением психики </x:t>
+    <x:t>Приемное отделение</x:t>
   </x:si>
   <x:si>
     <x:t>65</x:t>
   </x:si>
   <x:si>
-    <x:t>Отдел аллергологии и клинической иммунологии</x:t>
+    <x:t>Центр коррекции развития детей раннего возраста</x:t>
   </x:si>
   <x:si>
     <x:t>66</x:t>
   </x:si>
   <x:si>
-    <x:t>Отдел психоневрологии и эпилептологии</x:t>
+    <x:t>Консультативно-диагностическое отделение</x:t>
   </x:si>
   <x:si>
     <x:t>67</x:t>
   </x:si>
   <x:si>
-    <x:t>Отдел гастроэнтерологии</x:t>
+    <x:t>Отделение раннего возраста</x:t>
   </x:si>
   <x:si>
     <x:t>68</x:t>
   </x:si>
   <x:si>
-    <x:t>Отдел неонатологии и патологии детей раннего возраста</x:t>
+    <x:t>Отдел оказания медицинской помощи</x:t>
   </x:si>
   <x:si>
     <x:t>69</x:t>
   </x:si>
   <x:si>
-    <x:t>Отдел хронических, воспалительных и аллергических.болезней легких</x:t>
+    <x:t>Отдел контроля качества медицинской помощи</x:t>
   </x:si>
   <x:si>
     <x:t>70</x:t>
   </x:si>
   <x:si>
-    <x:t>Отдел наследственных и приобретенных болезней почек</x:t>
+    <x:t>Отделение нейрохирургии</x:t>
   </x:si>
   <x:si>
     <x:t>71</x:t>
   </x:si>
   <x:si>
-    <x:t>Аппарат управления</x:t>
+    <x:t>Консультативно-диагностический отдел</x:t>
   </x:si>
   <x:si>
     <x:t>72</x:t>
   </x:si>
   <x:si>
-    <x:t>Бухгалтерия</x:t>
+    <x:t>Детский стоматологический кабинет</x:t>
   </x:si>
   <x:si>
     <x:t>73</x:t>
   </x:si>
   <x:si>
-    <x:t>Инженерная служба</x:t>
+    <x:t>Педиатрическое отделение</x:t>
   </x:si>
   <x:si>
     <x:t>74</x:t>
   </x:si>
   <x:si>
-    <x:t>Отдел документации и делопроизводства</x:t>
+    <x:t>Отделение лучевой диагностики</x:t>
   </x:si>
   <x:si>
     <x:t>75</x:t>
   </x:si>
   <x:si>
-    <x:t>Пищеблок</x:t>
+    <x:t>Регистратура</x:t>
   </x:si>
   <x:si>
     <x:t>76</x:t>
   </x:si>
   <x:si>
-    <x:t>Планово-экономический отдел</x:t>
+    <x:t>Организационно-методический отдел</x:t>
   </x:si>
   <x:si>
     <x:t>77</x:t>
   </x:si>
   <x:si>
-    <x:t>Хозяйственный отдел</x:t>
+    <x:t>Группа по организационно-методической работе</x:t>
   </x:si>
   <x:si>
     <x:t>78</x:t>
   </x:si>
   <x:si>
-    <x:t>Центр поддержки и развития информационных систем</x:t>
+    <x:t>Группа по информационному взаимодействию с ТФОМС</x:t>
   </x:si>
   <x:si>
     <x:t>79</x:t>
   </x:si>
   <x:si>
-    <x:t>Аптека</x:t>
+    <x:t>Группа статистики</x:t>
   </x:si>
   <x:si>
     <x:t>80</x:t>
   </x:si>
   <x:si>
-    <x:t>Иммуно-бактериологическая лаборатория</x:t>
+    <x:t>Отделение аллергологии и иммунологии</x:t>
   </x:si>
   <x:si>
     <x:t>81</x:t>
   </x:si>
   <x:si>
-    <x:t>Лаборатория цитогенетики</x:t>
+    <x:t>Отдел госпитализации</x:t>
   </x:si>
   <x:si>
     <x:t>82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Клинико-диагностическая лаборатория</x:t>
-  </x:si>
-  <x:si>
-    <x:t>83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Лаборатория молекулярной и биохимической диагностики</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Операционный блок</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение анестезиологии-реанимации</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение мониторинга и анализа младенческой смертности</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение рентгеновских методов исследования</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение физиотерапии и восстановительного лечения</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кабинет парафиногрязелечения</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кабинет иглорефлексотерапии</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение функциональной диагностики</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Лаборатория патоморфологии и иммунологии</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Централизованное стерилизационное и дезинфекционное отделение</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Клинико-реабилитационное отделение </x:t>
-  </x:si>
-  <x:si>
-    <x:t>95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение клинической и  интервенционной аритмологии</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение функциональной диагностики нарушений сердечного ритма</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кабинет ультразвуковой диагностики</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение хирургического лечения сложных нарушений ритма сердца и электрокардиостимуляции</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Рентгеноперационный кабинет</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кардиоревматологическое отделение</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Общеклинический медицинский персонал</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Гинекологический кабинет</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отдел реализации медицинских услуг</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение врожденных и наследственных заболеваний с поражением центральной нервной системы с нарушением психики у детей</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение врожденных и наследственных заболеваний с поражением центральной нервной системы с наруше</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кабинет медико-генетического консультирования</x:t>
-  </x:si>
-  <x:si>
-    <x:t>106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение гастроэнтерологии и эндоскопических методов исследования</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение детской хирургии</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение нефрологии</x:t>
-  </x:si>
-  <x:si>
-    <x:t>109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение офтальмологии</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение психоневрологии</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кабинет цистоскопии</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение психоневрологии-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Пульмонологическое отделение</x:t>
-  </x:si>
-  <x:si>
-    <x:t>114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение реабилитации детей радиационного риска</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение стоматологии</x:t>
-  </x:si>
-  <x:si>
-    <x:t>116</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кабинет эндоскопии (бронхоскопии)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Оториноларингологическое отделение</x:t>
-  </x:si>
-  <x:si>
-    <x:t>118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Приемное отделение</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Центр коррекции развития детей раннего возраста</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Консультативно-диагностическое отделение</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение раннего возраста</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отдел оказания медицинской помощи</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отдел контроля качества медицинской помощи</x:t>
-  </x:si>
-  <x:si>
-    <x:t>124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение нейрохирургии</x:t>
-  </x:si>
-  <x:si>
-    <x:t>125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Консультативно-диагностический отдел</x:t>
-  </x:si>
-  <x:si>
-    <x:t>126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Детский стоматологический кабинет</x:t>
-  </x:si>
-  <x:si>
-    <x:t>127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Педиатрическое отделение</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение лучевой диагностики</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Регистратура</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Организационно-методический отдел</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Группа по организационно-методической работе</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Группа по информационному взаимодействию с ТФОМС</x:t>
-  </x:si>
-  <x:si>
-    <x:t>133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Группа статистики</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отделение аллергологии и иммунологии</x:t>
-  </x:si>
-  <x:si>
-    <x:t>135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отдел госпитализации</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -888,7 +891,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F82"/>
+  <x:dimension ref="A1:F83"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2534,6 +2537,22 @@
         <x:v>2958465.99999997</x:v>
       </x:c>
     </x:row>
+    <x:row r="83" spans="1:6">
+      <x:c r="A83" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s"/>
+      <x:c r="D83" s="0" t="s"/>
+      <x:c r="E83" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F83" s="2">
+        <x:v>2958465.99999997</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
